--- a/pretreat_data/전처리_OECD 평균 근로시간.xlsx
+++ b/pretreat_data/전처리_OECD 평균 근로시간.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E462"/>
+  <dimension ref="A1:E450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -482,7 +482,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>체코</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>체코</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>체코</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>체코</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>체코</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>체코</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>체코</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>체코</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>체코</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>체코</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>체코</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>체코</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>아이슬란드</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>아이슬란드</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>아이슬란드</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>아이슬란드</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>아이슬란드</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>아이슬란드</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>아이슬란드</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>아이슬란드</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>아이슬란드</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>아이슬란드</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>아이슬란드</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>아이슬란드</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4892,7 +4892,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>슬로바키아</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>슬로바키아</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>슬로바키아</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>슬로바키아</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>슬로바키아</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>슬로바키아</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>슬로바키아</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>슬로바키아</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>슬로바키아</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>슬로바키아</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>슬로바키아</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>슬로바키아</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>스위스</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>스위스</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>스위스</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>스위스</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>스위스</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -7118,7 +7118,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>스위스</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>스위스</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>스위스</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>스위스</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -7202,7 +7202,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>스위스</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>스위스</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -7244,7 +7244,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>스위스</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7580,7 +7580,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -7706,7 +7706,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -7790,7 +7790,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -7832,7 +7832,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -7996,11 +7996,11 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>OECD countries</t>
+          <t>이스라엘</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -8012,16 +8012,16 @@
         <v>2010</v>
       </c>
       <c r="E361" t="n">
-        <v>1772.450565</v>
+        <v>1956.5</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>OECD countries</t>
+          <t>이스라엘</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -8033,16 +8033,16 @@
         <v>2011</v>
       </c>
       <c r="E362" t="n">
-        <v>1771.505447</v>
+        <v>1947.2</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>OECD countries</t>
+          <t>이스라엘</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -8054,16 +8054,16 @@
         <v>2012</v>
       </c>
       <c r="E363" t="n">
-        <v>1769.973128</v>
+        <v>1918.8</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>OECD countries</t>
+          <t>이스라엘</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -8075,16 +8075,16 @@
         <v>2013</v>
       </c>
       <c r="E364" t="n">
-        <v>1765.550949</v>
+        <v>1908.2</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>OECD countries</t>
+          <t>이스라엘</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -8096,16 +8096,16 @@
         <v>2014</v>
       </c>
       <c r="E365" t="n">
-        <v>1768.379729</v>
+        <v>1894.5</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>OECD countries</t>
+          <t>이스라엘</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -8117,16 +8117,16 @@
         <v>2015</v>
       </c>
       <c r="E366" t="n">
-        <v>1767.098512</v>
+        <v>1895.4</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>OECD countries</t>
+          <t>이스라엘</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -8138,16 +8138,16 @@
         <v>2016</v>
       </c>
       <c r="E367" t="n">
-        <v>1765.380089</v>
+        <v>1922.1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>OECD countries</t>
+          <t>이스라엘</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -8159,16 +8159,16 @@
         <v>2017</v>
       </c>
       <c r="E368" t="n">
-        <v>1757.356853</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>OECD countries</t>
+          <t>이스라엘</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -8180,16 +8180,16 @@
         <v>2018</v>
       </c>
       <c r="E369" t="n">
-        <v>1752.530654</v>
+        <v>1910.1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>OECD countries</t>
+          <t>이스라엘</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -8201,16 +8201,16 @@
         <v>2019</v>
       </c>
       <c r="E370" t="n">
-        <v>1741.931507</v>
+        <v>1898.1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>OECD countries</t>
+          <t>이스라엘</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -8222,16 +8222,16 @@
         <v>2020</v>
       </c>
       <c r="E371" t="n">
-        <v>1667.987611</v>
+        <v>1782.5</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>OECD countries</t>
+          <t>이스라엘</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -8243,16 +8243,16 @@
         <v>2021</v>
       </c>
       <c r="E372" t="n">
-        <v>1715.817741</v>
+        <v>1752.8</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>칠레</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -8264,16 +8264,16 @@
         <v>2010</v>
       </c>
       <c r="E373" t="n">
-        <v>1956.5</v>
+        <v>2069.8</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>칠레</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -8285,16 +8285,16 @@
         <v>2011</v>
       </c>
       <c r="E374" t="n">
-        <v>1947.2</v>
+        <v>2050.2</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>칠레</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -8306,16 +8306,16 @@
         <v>2012</v>
       </c>
       <c r="E375" t="n">
-        <v>1918.8</v>
+        <v>2027.4</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>칠레</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -8327,16 +8327,16 @@
         <v>2013</v>
       </c>
       <c r="E376" t="n">
-        <v>1908.2</v>
+        <v>2021.3</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>칠레</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -8348,16 +8348,16 @@
         <v>2014</v>
       </c>
       <c r="E377" t="n">
-        <v>1894.5</v>
+        <v>1994.4</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>칠레</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -8369,16 +8369,16 @@
         <v>2015</v>
       </c>
       <c r="E378" t="n">
-        <v>1895.4</v>
+        <v>1993.7</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>칠레</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -8390,16 +8390,16 @@
         <v>2016</v>
       </c>
       <c r="E379" t="n">
-        <v>1922.1</v>
+        <v>1977.5</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>칠레</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8411,16 +8411,16 @@
         <v>2017</v>
       </c>
       <c r="E380" t="n">
-        <v>1918</v>
+        <v>1963.1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>칠레</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -8432,16 +8432,16 @@
         <v>2018</v>
       </c>
       <c r="E381" t="n">
-        <v>1910.1</v>
+        <v>1955.5</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>칠레</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -8453,16 +8453,16 @@
         <v>2019</v>
       </c>
       <c r="E382" t="n">
-        <v>1898.1</v>
+        <v>1929.5</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>칠레</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -8474,16 +8474,16 @@
         <v>2020</v>
       </c>
       <c r="E383" t="n">
-        <v>1782.5</v>
+        <v>1825.3</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>칠레</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -8495,16 +8495,16 @@
         <v>2021</v>
       </c>
       <c r="E384" t="n">
-        <v>1752.8</v>
+        <v>1915.6</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -8516,16 +8516,16 @@
         <v>2010</v>
       </c>
       <c r="E385" t="n">
-        <v>2069.8</v>
+        <v>1680.3</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -8537,16 +8537,16 @@
         <v>2011</v>
       </c>
       <c r="E386" t="n">
-        <v>2050.2</v>
+        <v>1663.4</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -8558,16 +8558,16 @@
         <v>2012</v>
       </c>
       <c r="E387" t="n">
-        <v>2027.4</v>
+        <v>1644.3</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -8579,16 +8579,16 @@
         <v>2013</v>
       </c>
       <c r="E388" t="n">
-        <v>2021.3</v>
+        <v>1662.2</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -8600,16 +8600,16 @@
         <v>2014</v>
       </c>
       <c r="E389" t="n">
-        <v>1994.4</v>
+        <v>1681.8</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -8621,16 +8621,16 @@
         <v>2015</v>
       </c>
       <c r="E390" t="n">
-        <v>1993.7</v>
+        <v>1687.3</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -8642,16 +8642,16 @@
         <v>2016</v>
       </c>
       <c r="E391" t="n">
-        <v>1977.5</v>
+        <v>1652.4</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -8663,16 +8663,16 @@
         <v>2017</v>
       </c>
       <c r="E392" t="n">
-        <v>1963.1</v>
+        <v>1621.923406</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -8684,16 +8684,16 @@
         <v>2018</v>
       </c>
       <c r="E393" t="n">
-        <v>1955.5</v>
+        <v>1599.109358</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -8705,16 +8705,16 @@
         <v>2019</v>
       </c>
       <c r="E394" t="n">
-        <v>1929.5</v>
+        <v>1601.835103</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -8726,16 +8726,16 @@
         <v>2020</v>
       </c>
       <c r="E395" t="n">
-        <v>1825.3</v>
+        <v>1533.822669</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -8747,16 +8747,16 @@
         <v>2021</v>
       </c>
       <c r="E396" t="n">
-        <v>1915.6</v>
+        <v>1596.395392</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -8768,16 +8768,16 @@
         <v>2010</v>
       </c>
       <c r="E397" t="n">
-        <v>1680.3</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -8789,16 +8789,16 @@
         <v>2011</v>
       </c>
       <c r="E398" t="n">
-        <v>1663.4</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -8810,16 +8810,16 @@
         <v>2012</v>
       </c>
       <c r="E399" t="n">
-        <v>1644.3</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -8831,16 +8831,16 @@
         <v>2013</v>
       </c>
       <c r="E400" t="n">
-        <v>1662.2</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -8852,16 +8852,16 @@
         <v>2014</v>
       </c>
       <c r="E401" t="n">
-        <v>1681.8</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -8873,16 +8873,16 @@
         <v>2015</v>
       </c>
       <c r="E402" t="n">
-        <v>1687.3</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -8894,16 +8894,16 @@
         <v>2016</v>
       </c>
       <c r="E403" t="n">
-        <v>1652.4</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -8915,16 +8915,16 @@
         <v>2017</v>
       </c>
       <c r="E404" t="n">
-        <v>1621.923406</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -8936,16 +8936,16 @@
         <v>2018</v>
       </c>
       <c r="E405" t="n">
-        <v>1599.109358</v>
+        <v>1707.193467</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -8957,16 +8957,16 @@
         <v>2019</v>
       </c>
       <c r="E406" t="n">
-        <v>1601.835103</v>
+        <v>1694.396177</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -8978,16 +8978,16 @@
         <v>2020</v>
       </c>
       <c r="E407" t="n">
-        <v>1533.822669</v>
+        <v>1637.156028</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -8999,16 +8999,16 @@
         <v>2021</v>
       </c>
       <c r="E408" t="n">
-        <v>1596.395392</v>
+        <v>1767.055731</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -9020,16 +9020,16 @@
         <v>2010</v>
       </c>
       <c r="E409" t="n">
-        <v>1785</v>
+        <v>1696.68335</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -9041,16 +9041,16 @@
         <v>2011</v>
       </c>
       <c r="E410" t="n">
-        <v>1827</v>
+        <v>1674.218132</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -9062,16 +9062,16 @@
         <v>2012</v>
       </c>
       <c r="E411" t="n">
-        <v>1796</v>
+        <v>1672.254231</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -9083,16 +9083,16 @@
         <v>2013</v>
       </c>
       <c r="E412" t="n">
-        <v>1777</v>
+        <v>1657.481979</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -9104,16 +9104,16 @@
         <v>2014</v>
       </c>
       <c r="E413" t="n">
-        <v>1771</v>
+        <v>1649.891619</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -9125,16 +9125,16 @@
         <v>2015</v>
       </c>
       <c r="E414" t="n">
-        <v>1763</v>
+        <v>1673.201646</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -9146,16 +9146,16 @@
         <v>2016</v>
       </c>
       <c r="E415" t="n">
-        <v>1767</v>
+        <v>1694.331001</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -9167,16 +9167,16 @@
         <v>2017</v>
       </c>
       <c r="E416" t="n">
-        <v>1768</v>
+        <v>1656.898913</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -9188,16 +9188,16 @@
         <v>2018</v>
       </c>
       <c r="E417" t="n">
-        <v>1707.193467</v>
+        <v>1664.021426</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -9209,16 +9209,16 @@
         <v>2019</v>
       </c>
       <c r="E418" t="n">
-        <v>1694.396177</v>
+        <v>1665.381726</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -9230,16 +9230,16 @@
         <v>2020</v>
       </c>
       <c r="E419" t="n">
-        <v>1637.156028</v>
+        <v>1594.925699</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -9251,16 +9251,16 @@
         <v>2021</v>
       </c>
       <c r="E420" t="n">
-        <v>1767.055731</v>
+        <v>1619.977863</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -9272,16 +9272,16 @@
         <v>2010</v>
       </c>
       <c r="E421" t="n">
-        <v>1696.68335</v>
+        <v>1692.395932</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -9293,16 +9293,16 @@
         <v>2011</v>
       </c>
       <c r="E422" t="n">
-        <v>1674.218132</v>
+        <v>1707.039721</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -9314,16 +9314,16 @@
         <v>2012</v>
       </c>
       <c r="E423" t="n">
-        <v>1672.254231</v>
+        <v>1691.635411</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -9335,16 +9335,16 @@
         <v>2013</v>
       </c>
       <c r="E424" t="n">
-        <v>1657.481979</v>
+        <v>1685.929275</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -9356,16 +9356,16 @@
         <v>2014</v>
       </c>
       <c r="E425" t="n">
-        <v>1649.891619</v>
+        <v>1695.303425</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -9377,16 +9377,16 @@
         <v>2015</v>
       </c>
       <c r="E426" t="n">
-        <v>1673.201646</v>
+        <v>1663.180908</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -9398,16 +9398,16 @@
         <v>2016</v>
       </c>
       <c r="E427" t="n">
-        <v>1694.331001</v>
+        <v>1663.835623</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -9419,16 +9419,16 @@
         <v>2017</v>
       </c>
       <c r="E428" t="n">
-        <v>1656.898913</v>
+        <v>1649.860291</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -9440,16 +9440,16 @@
         <v>2018</v>
       </c>
       <c r="E429" t="n">
-        <v>1664.021426</v>
+        <v>1661.309003</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -9461,16 +9461,16 @@
         <v>2019</v>
       </c>
       <c r="E430" t="n">
-        <v>1665.381726</v>
+        <v>1631.036487</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -9482,16 +9482,16 @@
         <v>2020</v>
       </c>
       <c r="E431" t="n">
-        <v>1594.925699</v>
+        <v>1576.930288</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -9503,16 +9503,16 @@
         <v>2021</v>
       </c>
       <c r="E432" t="n">
-        <v>1619.977863</v>
+        <v>1601.202851</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>코스타리카</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -9524,16 +9524,16 @@
         <v>2010</v>
       </c>
       <c r="E433" t="n">
-        <v>1692.395932</v>
+        <v>2243.1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>코스타리카</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -9545,16 +9545,16 @@
         <v>2011</v>
       </c>
       <c r="E434" t="n">
-        <v>1707.039721</v>
+        <v>2285.3</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>코스타리카</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -9566,16 +9566,16 @@
         <v>2012</v>
       </c>
       <c r="E435" t="n">
-        <v>1691.635411</v>
+        <v>2233.4</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>코스타리카</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -9587,16 +9587,16 @@
         <v>2013</v>
       </c>
       <c r="E436" t="n">
-        <v>1685.929275</v>
+        <v>2140.6</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>코스타리카</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -9608,16 +9608,16 @@
         <v>2014</v>
       </c>
       <c r="E437" t="n">
-        <v>1695.303425</v>
+        <v>2121.7</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>코스타리카</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -9629,16 +9629,16 @@
         <v>2015</v>
       </c>
       <c r="E438" t="n">
-        <v>1663.180908</v>
+        <v>2148.2</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>코스타리카</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -9650,16 +9650,16 @@
         <v>2016</v>
       </c>
       <c r="E439" t="n">
-        <v>1663.835623</v>
+        <v>2204.7</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>코스타리카</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -9671,16 +9671,16 @@
         <v>2017</v>
       </c>
       <c r="E440" t="n">
-        <v>1649.860291</v>
+        <v>2178.9</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>코스타리카</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -9692,16 +9692,16 @@
         <v>2018</v>
       </c>
       <c r="E441" t="n">
-        <v>1661.309003</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>코스타리카</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -9713,16 +9713,16 @@
         <v>2019</v>
       </c>
       <c r="E442" t="n">
-        <v>1631.036487</v>
+        <v>2059.6</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>코스타리카</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -9734,16 +9734,16 @@
         <v>2020</v>
       </c>
       <c r="E443" t="n">
-        <v>1576.930288</v>
+        <v>1913.2</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>코스타리카</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -9755,16 +9755,16 @@
         <v>2021</v>
       </c>
       <c r="E444" t="n">
-        <v>1601.202851</v>
+        <v>2073.3</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>콜롬비아</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -9773,19 +9773,19 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E445" t="n">
-        <v>2243.1</v>
+        <v>2325.319232</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>콜롬비아</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -9794,19 +9794,19 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="E446" t="n">
-        <v>2285.3</v>
+        <v>2315.430291</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>콜롬비아</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -9815,19 +9815,19 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E447" t="n">
-        <v>2233.4</v>
+        <v>2284.499821</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>콜롬비아</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -9836,19 +9836,19 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="E448" t="n">
-        <v>2140.6</v>
+        <v>2283.325839</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>콜롬비아</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -9857,19 +9857,19 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E449" t="n">
-        <v>2121.7</v>
+        <v>2272.192928</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>콜롬비아</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -9878,261 +9878,9 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E450" t="n">
-        <v>2148.2</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>Total employment</t>
-        </is>
-      </c>
-      <c r="D451" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E451" t="n">
-        <v>2204.7</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="C452" t="inlineStr">
-        <is>
-          <t>Total employment</t>
-        </is>
-      </c>
-      <c r="D452" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E452" t="n">
-        <v>2178.9</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>Total employment</t>
-        </is>
-      </c>
-      <c r="D453" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E453" t="n">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>Total employment</t>
-        </is>
-      </c>
-      <c r="D454" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E454" t="n">
-        <v>2059.6</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>Total employment</t>
-        </is>
-      </c>
-      <c r="D455" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E455" t="n">
-        <v>1913.2</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>Total employment</t>
-        </is>
-      </c>
-      <c r="D456" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E456" t="n">
-        <v>2073.3</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>Total employment</t>
-        </is>
-      </c>
-      <c r="D457" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E457" t="n">
-        <v>2325.319232</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>Total employment</t>
-        </is>
-      </c>
-      <c r="D458" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E458" t="n">
-        <v>2315.430291</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>Total employment</t>
-        </is>
-      </c>
-      <c r="D459" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E459" t="n">
-        <v>2284.499821</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>Total employment</t>
-        </is>
-      </c>
-      <c r="D460" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E460" t="n">
-        <v>2283.325839</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>Total employment</t>
-        </is>
-      </c>
-      <c r="D461" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E461" t="n">
-        <v>2272.192928</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>Total employment</t>
-        </is>
-      </c>
-      <c r="D462" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E462" t="n">
         <v>1963.970524</v>
       </c>
     </row>
